--- a/biology/Biologie cellulaire et moléculaire/Récepteur_des_œstrogènes/Récepteur_des_œstrogènes.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_des_œstrogènes/Récepteur_des_œstrogènes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_%C5%93strog%C3%A8nes</t>
+          <t>Récepteur_des_œstrogènes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteurs des œstrogènes (ER), ERα (en) et ERβ (en), sont des protéines de la superfamille des récepteurs nucléaires, famille des récepteurs des stéroïdes, liant naturellement les œstrogènes, qui sont les principales hormones stéroïdes sexuelles féminines dans l'organisme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_%C5%93strog%C3%A8nes</t>
+          <t>Récepteur_des_œstrogènes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les récepteurs des œstrogènes furent initialement conceptualisés par Elwood V. Jensen à l'Université de Chicago à la fin des années 1950[1] ce qui lui valut d'être corécipiendaire du Prix Lasker en 2004. Il s'agissait à l'époque de la première identification d'un récepteur des hormones stéroïdes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les récepteurs des œstrogènes furent initialement conceptualisés par Elwood V. Jensen à l'Université de Chicago à la fin des années 1950 ce qui lui valut d'être corécipiendaire du Prix Lasker en 2004. Il s'agissait à l'époque de la première identification d'un récepteur des hormones stéroïdes.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_%C5%93strog%C3%A8nes</t>
+          <t>Récepteur_des_œstrogènes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les récepteurs ERα (ESR1, NR3A1) et ERβ (ESR2, NR3A2) sont deux protéines structurées par cinq régions communes à tous les récepteurs nucléaires. Ces régions sont nommées A/B, C, D, E et F et participent à la formation des domaines fonctionnels : le domaine N-terminal possédant des fonctions de transactivation, le domaine de liaison à l'ADN (ou DBD), le domaine de dimérisation, le signal de localisation nucléaire (ou NLS) et le domaine de liaison du ligand (ou LBD). ERβ est plus court de séquence en acides aminés que ERα mais tous deux possèdent une similarité de structure dans les domaines DBD et LBD[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les récepteurs ERα (ESR1, NR3A1) et ERβ (ESR2, NR3A2) sont deux protéines structurées par cinq régions communes à tous les récepteurs nucléaires. Ces régions sont nommées A/B, C, D, E et F et participent à la formation des domaines fonctionnels : le domaine N-terminal possédant des fonctions de transactivation, le domaine de liaison à l'ADN (ou DBD), le domaine de dimérisation, le signal de localisation nucléaire (ou NLS) et le domaine de liaison du ligand (ou LBD). ERβ est plus court de séquence en acides aminés que ERα mais tous deux possèdent une similarité de structure dans les domaines DBD et LBD,.
 Le domaine N-terminal (domaines A et B)
 La région A/B constituant le N-terminal des ER est impliquée dans des interactions protéine-protéine et participe, par le recrutement de cofacteurs transcriptionnels, à l’activation et l’expression des gènes cibles de l'œstradiol. Cette région contient une fonction d’activation de la transcription ou AF1 (Activation function) en plus de sites de phosphorylation fonctionnels. Le domaine AF1 est un domaine indépendant de la fixation de ligand au LBD. Mais l’activation complète par ERα et ERβ nécessite la fonction de transactivation AF2. 
 Le domaine de liaison à l'ADN (domaine C)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_%C5%93strog%C3%A8nes</t>
+          <t>Récepteur_des_œstrogènes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Mécanismes d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deux modes d'action principaux des récepteurs des œstrogènes sont décrits : la voie génomique et la voie non-génomique.
 La voie génomique, la plus classique et la mieux connue, correspond à la situation où les récepteurs des œstrogènes agissent comme des facteurs de transcription, à savoir quand ils se fixent au niveau des séquences régulatrices des gènes œstrogéno-régulés pour moduler leur expression. On parle de voie génomique directe ou indirecte selon que le récepteur se fixe directement sur les séquences d'ADN régulatrices ou via une interaction avec d'autres facteurs de transcription tels que les protéines AP-1 ou Sp1.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_%C5%93strog%C3%A8nes</t>
+          <t>Récepteur_des_œstrogènes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteurs nucléaires des œstrogènes ERα (en) et ERβ (en) sont impliqués dans de nombreux processus physiologiques, notamment la fonction de reproduction, aussi bien chez le mâle que la femelle. L'invalidation du récepteur ERα conduit par exemple à la stérilité des souris femelles et mâles. À des degrés divers, les ER exercent des fonctions au niveau du système nerveux central, du foie, des vaisseaux sanguins, du système immunitaire, des tissus adipeux et osseux.
 </t>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_%C5%93strog%C3%A8nes</t>
+          <t>Récepteur_des_œstrogènes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,10 +665,12 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale pathologie liée à un dérèglement du fonctionnement des œstrogènes et leurs récepteurs est le cancer du sein hormono-dépendant. En effet, près de 60 % des tumeurs cancéreuses mammaires présentent initialement une croissance dépendante des œstrogènes. En revanche, alors que les effets prolifératifs des œstrogènes semblent clairement impliquer ERα, ERβ exercerait plutôt des effets anti-prolifératifs. Paradoxalement, les tumeurs ERα-positives sont souvent moins invasives que les tumeurs ER-négatives et leur pronostic est de fait généralement meilleur. Les tumeurs œstrogéno-dépendantes affectent également d'autres organes, notamment l'utérus (endomètre). 
-Bien que cela reste à démontrer clairement, les récepteurs ERα et ERβ seraient impliqués dans certains effets protecteurs des œstrogènes dans des maladies neuro-dégénératives telles que la maladie d'Alzheimer, ainsi qu'à la suite de certains accidents vasculaires cérébraux. Cependant, la découverte récente d'un troisième récepteur transmembranaire des œstrogènes[4] de la famille des récepteurs couplés aux protéines G, GPR30, complexifie le mécanisme d'action des récepteurs impliqués dans ces effets. De plus, GPR30 semble particulièrement abondant et actif au niveau du système nerveux central.
+Bien que cela reste à démontrer clairement, les récepteurs ERα et ERβ seraient impliqués dans certains effets protecteurs des œstrogènes dans des maladies neuro-dégénératives telles que la maladie d'Alzheimer, ainsi qu'à la suite de certains accidents vasculaires cérébraux. Cependant, la découverte récente d'un troisième récepteur transmembranaire des œstrogènes de la famille des récepteurs couplés aux protéines G, GPR30, complexifie le mécanisme d'action des récepteurs impliqués dans ces effets. De plus, GPR30 semble particulièrement abondant et actif au niveau du système nerveux central.
 </t>
         </is>
       </c>
